--- a/data/Trade.xlsx
+++ b/data/Trade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financial-Reflection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D5C838-BA4E-450E-8884-2FC6FD8AF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59512E36-0D94-491D-ABF6-EF7FB59A8C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21710" yWindow="-160" windowWidth="21820" windowHeight="13900" xr2:uid="{D4454D9F-2570-4C96-B584-883DCE5A3D8D}"/>
+    <workbookView xWindow="2550" yWindow="4780" windowWidth="16200" windowHeight="9970" activeTab="1" xr2:uid="{D4454D9F-2570-4C96-B584-883DCE5A3D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Position" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -185,6 +185,36 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>MA501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合约乘数</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb2410</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb2501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +228,7 @@
     <numFmt numFmtId="179" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +280,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -285,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,11 +398,14 @@
     <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -396,7 +436,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -694,26 +734,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACE7EB3-D36D-4D36-949E-F3430B4DBAEA}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.58203125" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="5.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.75" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -751,7 +791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45535</v>
       </c>
@@ -792,7 +832,7 @@
         <v>768.8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>45535</v>
       </c>
@@ -833,7 +873,7 @@
         <v>2208.8000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>45535</v>
       </c>
@@ -874,7 +914,7 @@
         <v>2721.6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>45535</v>
       </c>
@@ -915,7 +955,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>45535</v>
       </c>
@@ -956,7 +996,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>45535</v>
       </c>
@@ -997,7 +1037,7 @@
         <v>3588.0000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>45535</v>
       </c>
@@ -1038,7 +1078,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>45535</v>
       </c>
@@ -1079,7 +1119,7 @@
         <v>7658</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>45535</v>
       </c>
@@ -1136,23 +1176,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3967F6A3-7162-475E-8223-8FDD3D447ACF}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -1171,8 +1213,11 @@
       <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45505</v>
       </c>
@@ -1191,8 +1236,11 @@
       <c r="F2" s="8">
         <v>13.27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>45506</v>
       </c>
@@ -1211,8 +1259,11 @@
       <c r="F3" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>45506</v>
       </c>
@@ -1231,8 +1282,11 @@
       <c r="F4" s="8">
         <v>19.45</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>45509</v>
       </c>
@@ -1251,8 +1305,11 @@
       <c r="F5" s="8">
         <v>20.14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>45512</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="F6" s="8">
         <v>12.42</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>45520</v>
       </c>
@@ -1291,8 +1351,11 @@
       <c r="F7" s="8">
         <v>11.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>45520</v>
       </c>
@@ -1311,8 +1374,11 @@
       <c r="F8" s="8">
         <v>1.548</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>45524</v>
       </c>
@@ -1331,8 +1397,11 @@
       <c r="F9" s="8">
         <v>19.43</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>45525</v>
       </c>
@@ -1351,8 +1420,11 @@
       <c r="F10" s="8">
         <v>18.739999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>45526</v>
       </c>
@@ -1371,8 +1443,11 @@
       <c r="F11" s="8">
         <v>18.13</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>45526</v>
       </c>
@@ -1391,8 +1466,11 @@
       <c r="F12" s="8">
         <v>5.5179999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>45526</v>
       </c>
@@ -1411,8 +1489,11 @@
       <c r="F13" s="8">
         <v>11.33</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>45531</v>
       </c>
@@ -1431,8 +1512,11 @@
       <c r="F14" s="8">
         <v>6.53</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>45531</v>
       </c>
@@ -1451,8 +1535,11 @@
       <c r="F15" s="8">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>45532</v>
       </c>
@@ -1470,6 +1557,285 @@
       </c>
       <c r="F16" s="8">
         <v>1.905</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>45537</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2522</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>45537</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2510</v>
+      </c>
+      <c r="G18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>45537</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3208</v>
+      </c>
+      <c r="G19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>45537</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3198</v>
+      </c>
+      <c r="G20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>45537</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2299</v>
+      </c>
+      <c r="G21" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>45537</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5644</v>
+      </c>
+      <c r="G22" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>45537</v>
+      </c>
+      <c r="B23" s="6">
+        <v>600183</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>200</v>
+      </c>
+      <c r="F23" s="8">
+        <v>17.45</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>45537</v>
+      </c>
+      <c r="B24" s="6">
+        <v>600988</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>200</v>
+      </c>
+      <c r="F24" s="8">
+        <v>17.03</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>45538</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5609</v>
+      </c>
+      <c r="G25" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>45538</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3232</v>
+      </c>
+      <c r="G26" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>45538</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2283</v>
+      </c>
+      <c r="G27" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>45538</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>3182</v>
+      </c>
+      <c r="G28" s="7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/Trade.xlsx
+++ b/data/Trade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financial-Reflection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59512E36-0D94-491D-ABF6-EF7FB59A8C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B73AB8-9416-47B4-8883-D7C17AED693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="4780" windowWidth="16200" windowHeight="9970" activeTab="1" xr2:uid="{D4454D9F-2570-4C96-B584-883DCE5A3D8D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{D4454D9F-2570-4C96-B584-883DCE5A3D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Position" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="32">
   <si>
     <t>代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -213,6 +213,10 @@
   </si>
   <si>
     <t>rb2501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG501</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -403,11 +407,453 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="179" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -435,8 +881,72 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{254FA11E-CA67-4CA9-8873-B75AD62D6C7A}" name="表1" displayName="表1" ref="A1:L10" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:L10" xr:uid="{254FA11E-CA67-4CA9-8873-B75AD62D6C7A}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{DCA38D52-9D01-41BE-812E-21B4AE4233CC}" name="报告日期" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{3FEC1658-A268-4E9D-AAC9-06B10B1F68FC}" name="代码" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{B0501A76-95EC-41E3-A8E6-DE5FF5174E79}" name="名称" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{C9C04B5D-EF9E-4BC9-8DC3-DEAED0F5BF4A}" name="数量" dataDxfId="18" dataCellStyle="千位分隔"/>
+    <tableColumn id="5" xr3:uid="{7ABD7AD3-0ACB-48A8-A7C5-974852DAAD82}" name="合约乘数" dataDxfId="17" dataCellStyle="千位分隔"/>
+    <tableColumn id="6" xr3:uid="{248120EE-48A6-4AA4-8A5A-3C9C58705A37}" name="现价" dataDxfId="16" dataCellStyle="千位分隔"/>
+    <tableColumn id="7" xr3:uid="{55789B81-9206-45C2-91D9-B30FEB17E515}" name="持仓价" dataDxfId="15" dataCellStyle="千位分隔"/>
+    <tableColumn id="8" xr3:uid="{A80AB8B9-43FD-44AB-B9EE-408F8BA5EE8D}" name="方向" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{242D376A-2813-4655-AAD0-E271F4B5DA5B}" name="类型" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{CF224607-AE06-4E2B-A128-5C5AE24C9E33}" name="持仓收益率" dataDxfId="12" dataCellStyle="百分比">
+      <calculatedColumnFormula>LN(F2/G2)*H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{20888E96-6EF2-4222-8586-8E37822625DF}" name="浮动盈亏" dataDxfId="11">
+      <calculatedColumnFormula>D2*H2*(F2-G2)*E2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{50509ECE-5F52-4A4F-BB43-1708BFC30630}" name="持有权益" dataDxfId="10">
+      <calculatedColumnFormula>D2*F2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{209B4038-4159-413B-BEC9-90CAC32EBF0E}" name="表2" displayName="表2" ref="A1:G37" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:G37" xr:uid="{209B4038-4159-413B-BEC9-90CAC32EBF0E}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A4EDFEF9-7EF2-4E42-8B13-A9C075F6458B}" name="交易日期" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D9CDBDF4-614D-4147-925F-F327FE5A2468}" name="代码" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{DD287B2D-7367-41D2-BD31-71269CC90950}" name="类型" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{2A85173F-E725-496B-917A-497B9210F646}" name="方向" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{9889A364-5E5E-45DA-95F5-AC676A39D678}" name="数量" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{96264764-5D7A-4271-A9E3-4A43146FA483}" name="价格" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{A4E80CCB-A8D8-48E3-981C-AB0291B3DF21}" name="合约乘数" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -735,21 +1245,21 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.58203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.9140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1163,24 +1673,27 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3967F6A3-7162-475E-8223-8FDD3D447ACF}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1838,8 +2351,218 @@
         <v>10</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>45539</v>
+      </c>
+      <c r="B29" s="6">
+        <v>159660</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1800</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1.462</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>45539</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3135</v>
+      </c>
+      <c r="G30" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>45540</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <v>3134</v>
+      </c>
+      <c r="G31" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>45540</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2286</v>
+      </c>
+      <c r="G32" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>45540</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1156</v>
+      </c>
+      <c r="G33" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>45540</v>
+      </c>
+      <c r="B34" s="6">
+        <v>159985</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1200</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1.96</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>45544</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2221</v>
+      </c>
+      <c r="G35" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>45544</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2225</v>
+      </c>
+      <c r="G36" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>45540</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1120</v>
+      </c>
+      <c r="G37" s="7">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/Trade.xlsx
+++ b/data/Trade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financial-Reflection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B73AB8-9416-47B4-8883-D7C17AED693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEEAA41-079A-45A3-9C7D-C7654668792A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{D4454D9F-2570-4C96-B584-883DCE5A3D8D}"/>
+    <workbookView xWindow="6570" yWindow="2220" windowWidth="21645" windowHeight="11325" activeTab="1" xr2:uid="{D4454D9F-2570-4C96-B584-883DCE5A3D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Position" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
   <si>
     <t>代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,14 +45,6 @@
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -190,20 +182,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合约乘数</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>rb2410</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -217,6 +195,56 @@
   </si>
   <si>
     <t>FG501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA2501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开</t>
+  </si>
+  <si>
+    <t>开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +260,7 @@
     <numFmt numFmtId="179" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +319,22 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -326,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,57 +449,35 @@
     <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -570,6 +592,25 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="176" formatCode="000000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -591,6 +632,25 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -855,18 +915,30 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -882,7 +954,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{254FA11E-CA67-4CA9-8873-B75AD62D6C7A}" name="表1" displayName="表1" ref="A1:L10" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{254FA11E-CA67-4CA9-8873-B75AD62D6C7A}" name="表1" displayName="表1" ref="A1:L10" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A1:L10" xr:uid="{254FA11E-CA67-4CA9-8873-B75AD62D6C7A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -898,22 +970,22 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DCA38D52-9D01-41BE-812E-21B4AE4233CC}" name="报告日期" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{3FEC1658-A268-4E9D-AAC9-06B10B1F68FC}" name="代码" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{B0501A76-95EC-41E3-A8E6-DE5FF5174E79}" name="名称" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{C9C04B5D-EF9E-4BC9-8DC3-DEAED0F5BF4A}" name="数量" dataDxfId="18" dataCellStyle="千位分隔"/>
-    <tableColumn id="5" xr3:uid="{7ABD7AD3-0ACB-48A8-A7C5-974852DAAD82}" name="合约乘数" dataDxfId="17" dataCellStyle="千位分隔"/>
-    <tableColumn id="6" xr3:uid="{248120EE-48A6-4AA4-8A5A-3C9C58705A37}" name="现价" dataDxfId="16" dataCellStyle="千位分隔"/>
-    <tableColumn id="7" xr3:uid="{55789B81-9206-45C2-91D9-B30FEB17E515}" name="持仓价" dataDxfId="15" dataCellStyle="千位分隔"/>
-    <tableColumn id="8" xr3:uid="{A80AB8B9-43FD-44AB-B9EE-408F8BA5EE8D}" name="方向" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{242D376A-2813-4655-AAD0-E271F4B5DA5B}" name="类型" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{CF224607-AE06-4E2B-A128-5C5AE24C9E33}" name="持仓收益率" dataDxfId="12" dataCellStyle="百分比">
+    <tableColumn id="1" xr3:uid="{DCA38D52-9D01-41BE-812E-21B4AE4233CC}" name="报告日期" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{3FEC1658-A268-4E9D-AAC9-06B10B1F68FC}" name="代码" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{B0501A76-95EC-41E3-A8E6-DE5FF5174E79}" name="名称" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{C9C04B5D-EF9E-4BC9-8DC3-DEAED0F5BF4A}" name="数量" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{7ABD7AD3-0ACB-48A8-A7C5-974852DAAD82}" name="合约乘数" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{248120EE-48A6-4AA4-8A5A-3C9C58705A37}" name="现价" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{55789B81-9206-45C2-91D9-B30FEB17E515}" name="持仓价" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{A80AB8B9-43FD-44AB-B9EE-408F8BA5EE8D}" name="方向" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{242D376A-2813-4655-AAD0-E271F4B5DA5B}" name="类型" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{CF224607-AE06-4E2B-A128-5C5AE24C9E33}" name="持仓收益率" dataDxfId="14">
       <calculatedColumnFormula>LN(F2/G2)*H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{20888E96-6EF2-4222-8586-8E37822625DF}" name="浮动盈亏" dataDxfId="11">
+    <tableColumn id="11" xr3:uid="{20888E96-6EF2-4222-8586-8E37822625DF}" name="浮动盈亏" dataDxfId="13">
       <calculatedColumnFormula>D2*H2*(F2-G2)*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{50509ECE-5F52-4A4F-BB43-1708BFC30630}" name="持有权益" dataDxfId="10">
+    <tableColumn id="12" xr3:uid="{50509ECE-5F52-4A4F-BB43-1708BFC30630}" name="持有权益" dataDxfId="12">
       <calculatedColumnFormula>D2*F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -922,31 +994,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{209B4038-4159-413B-BEC9-90CAC32EBF0E}" name="表2" displayName="表2" ref="A1:G37" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:G37" xr:uid="{209B4038-4159-413B-BEC9-90CAC32EBF0E}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A4EDFEF9-7EF2-4E42-8B13-A9C075F6458B}" name="交易日期" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{D9CDBDF4-614D-4147-925F-F327FE5A2468}" name="代码" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{DD287B2D-7367-41D2-BD31-71269CC90950}" name="类型" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2A85173F-E725-496B-917A-497B9210F646}" name="方向" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{9889A364-5E5E-45DA-95F5-AC676A39D678}" name="数量" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{96264764-5D7A-4271-A9E3-4A43146FA483}" name="价格" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{A4E80CCB-A8D8-48E3-981C-AB0291B3DF21}" name="合约乘数" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{209B4038-4159-413B-BEC9-90CAC32EBF0E}" name="表2" displayName="表2" ref="A1:H60" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:H60" xr:uid="{209B4038-4159-413B-BEC9-90CAC32EBF0E}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A4EDFEF9-7EF2-4E42-8B13-A9C075F6458B}" name="trade_date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D9CDBDF4-614D-4147-925F-F327FE5A2468}" name="product" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DD287B2D-7367-41D2-BD31-71269CC90950}" name="type" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2A85173F-E725-496B-917A-497B9210F646}" name="direction" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{319CD41B-7A97-4AB9-94E1-7B90BF6B07A1}" name="开平" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{9889A364-5E5E-45DA-95F5-AC676A39D678}" name="lots" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{96264764-5D7A-4271-A9E3-4A43146FA483}" name="price" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{A4E80CCB-A8D8-48E3-981C-AB0291B3DF21}" name="multiply" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1248,42 +1313,42 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.9140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.125" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>3</v>
@@ -1292,16 +1357,16 @@
         <v>1</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>45535</v>
       </c>
@@ -1309,7 +1374,7 @@
         <v>159985</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="18">
         <v>400</v>
@@ -1327,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J2" s="21">
         <f>LN(F2/G2)*H2</f>
@@ -1342,7 +1407,7 @@
         <v>768.8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>45535</v>
       </c>
@@ -1350,7 +1415,7 @@
         <v>518880</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="18">
         <v>400</v>
@@ -1368,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" s="21">
         <f t="shared" ref="J3:J10" si="0">LN(F3/G3)*H3</f>
@@ -1383,7 +1448,7 @@
         <v>2208.8000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>45535</v>
       </c>
@@ -1391,7 +1456,7 @@
         <v>159690</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="18">
         <v>1800</v>
@@ -1409,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="21">
         <f t="shared" si="0"/>
@@ -1424,7 +1489,7 @@
         <v>2721.6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>45535</v>
       </c>
@@ -1432,7 +1497,7 @@
         <v>600988</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="18">
         <v>200</v>
@@ -1465,7 +1530,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>45535</v>
       </c>
@@ -1473,7 +1538,7 @@
         <v>600183</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="18">
         <v>200</v>
@@ -1506,7 +1571,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>45535</v>
       </c>
@@ -1514,7 +1579,7 @@
         <v>601398</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="18">
         <v>600</v>
@@ -1547,7 +1612,7 @@
         <v>3588.0000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>45535</v>
       </c>
@@ -1555,7 +1620,7 @@
         <v>601816</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="18">
         <v>700</v>
@@ -1588,7 +1653,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>45535</v>
       </c>
@@ -1596,7 +1661,7 @@
         <v>601985</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="18">
         <v>700</v>
@@ -1629,15 +1694,15 @@
         <v>7658</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>45535</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
@@ -1655,7 +1720,7 @@
         <v>-1</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="0"/>
@@ -1673,10 +1738,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1689,48 +1754,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3967F6A3-7162-475E-8223-8FDD3D447ACF}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="13.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="9"/>
+    <col min="10" max="10" width="9" style="26"/>
+    <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>45505</v>
       </c>
@@ -1743,17 +1816,20 @@
       <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>13.27</v>
+      </c>
+      <c r="H2" s="7">
         <v>100</v>
       </c>
-      <c r="F2" s="8">
-        <v>13.27</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>45506</v>
       </c>
@@ -1766,17 +1842,20 @@
       <c r="D3" s="7">
         <v>-1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7">
         <v>100</v>
       </c>
-      <c r="F3" s="8">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>45506</v>
       </c>
@@ -1789,17 +1868,17 @@
       <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
-        <v>800</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
         <v>19.45</v>
       </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>45509</v>
       </c>
@@ -1812,17 +1891,17 @@
       <c r="D5" s="7">
         <v>-1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>20.14</v>
+      </c>
+      <c r="H5" s="7">
         <v>100</v>
       </c>
-      <c r="F5" s="8">
-        <v>20.14</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>45512</v>
       </c>
@@ -1835,17 +1914,17 @@
       <c r="D6" s="7">
         <v>-1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>12.42</v>
+      </c>
+      <c r="H6" s="7">
         <v>100</v>
       </c>
-      <c r="F6" s="8">
-        <v>12.42</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>45520</v>
       </c>
@@ -1858,17 +1937,17 @@
       <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>11.05</v>
+      </c>
+      <c r="H7" s="7">
         <v>100</v>
       </c>
-      <c r="F7" s="8">
-        <v>11.05</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>45520</v>
       </c>
@@ -1876,22 +1955,22 @@
         <v>159660</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
         <v>-1</v>
       </c>
-      <c r="E8" s="7">
-        <v>1800</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8">
         <v>1.548</v>
       </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>45524</v>
       </c>
@@ -1904,17 +1983,17 @@
       <c r="D9" s="7">
         <v>-1</v>
       </c>
-      <c r="E9" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8">
         <v>19.43</v>
       </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>45525</v>
       </c>
@@ -1927,17 +2006,17 @@
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
-        <v>200</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
         <v>18.739999999999998</v>
       </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>45526</v>
       </c>
@@ -1950,17 +2029,17 @@
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
-        <v>200</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
         <v>18.13</v>
       </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>45526</v>
       </c>
@@ -1968,22 +2047,22 @@
         <v>518880</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
-        <v>400</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8">
         <v>5.5179999999999998</v>
       </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>45526</v>
       </c>
@@ -1996,17 +2075,17 @@
       <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
-        <v>600</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8">
         <v>11.33</v>
       </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>45531</v>
       </c>
@@ -2019,17 +2098,17 @@
       <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
-        <v>600</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
+        <v>6</v>
+      </c>
+      <c r="G14" s="8">
         <v>6.53</v>
       </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>45531</v>
       </c>
@@ -2042,17 +2121,17 @@
       <c r="D15" s="7">
         <v>1</v>
       </c>
-      <c r="E15" s="7">
-        <v>700</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
+        <v>7</v>
+      </c>
+      <c r="G15" s="8">
         <v>5.68</v>
       </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>45532</v>
       </c>
@@ -2060,160 +2139,160 @@
         <v>159985</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E16" s="7">
-        <v>400</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
+        <v>4</v>
+      </c>
+      <c r="G16" s="8">
         <v>1.905</v>
       </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>45537</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
         <v>-1</v>
       </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
         <v>2522</v>
       </c>
-      <c r="G17" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>45537</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
         <v>2510</v>
       </c>
-      <c r="G18" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>45537</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
         <v>-1</v>
       </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
         <v>3208</v>
       </c>
-      <c r="G19" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>45537</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
       </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
         <v>3198</v>
       </c>
-      <c r="G20" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>45537</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
       </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
         <v>2299</v>
       </c>
-      <c r="G21" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>45537</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
         <v>-1</v>
       </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
         <v>5644</v>
       </c>
-      <c r="G22" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>45537</v>
       </c>
@@ -2226,17 +2305,17 @@
       <c r="D23" s="7">
         <v>-1</v>
       </c>
-      <c r="E23" s="7">
-        <v>200</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8">
         <v>17.45</v>
       </c>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>45537</v>
       </c>
@@ -2249,109 +2328,109 @@
       <c r="D24" s="7">
         <v>-1</v>
       </c>
-      <c r="E24" s="7">
-        <v>200</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="8">
         <v>17.03</v>
       </c>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>45538</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
       </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
         <v>5609</v>
       </c>
-      <c r="G25" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>45538</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="7">
         <v>-1</v>
       </c>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
         <v>3232</v>
       </c>
-      <c r="G26" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>45538</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" s="7">
         <v>-1</v>
       </c>
-      <c r="E27" s="7">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
         <v>2283</v>
       </c>
-      <c r="G27" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>45538</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7">
         <v>1</v>
       </c>
-      <c r="E28" s="7">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
         <v>3182</v>
       </c>
-      <c r="G28" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>45539</v>
       </c>
@@ -2359,114 +2438,114 @@
         <v>159660</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7">
         <v>-1</v>
       </c>
-      <c r="E29" s="7">
-        <v>1800</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
+        <v>18</v>
+      </c>
+      <c r="G29" s="8">
         <v>1.462</v>
       </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>45539</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
         <v>-1</v>
       </c>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8">
         <v>3135</v>
       </c>
-      <c r="G30" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>45540</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
       </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
         <v>3134</v>
       </c>
-      <c r="G31" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>45540</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D32" s="7">
         <v>1</v>
       </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
         <v>2286</v>
       </c>
-      <c r="G32" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>45540</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33" s="7">
         <v>-1</v>
       </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8">
         <v>1156</v>
       </c>
-      <c r="G33" s="7">
+      <c r="H33" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>45540</v>
       </c>
@@ -2474,92 +2553,662 @@
         <v>159985</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34" s="7">
         <v>1</v>
       </c>
-      <c r="E34" s="7">
-        <v>1200</v>
-      </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
+        <v>12</v>
+      </c>
+      <c r="G34" s="8">
         <v>1.96</v>
       </c>
-      <c r="G34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>45544</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35" s="7">
         <v>-1</v>
       </c>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8">
         <v>2221</v>
       </c>
-      <c r="G35" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>45544</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
       </c>
-      <c r="E36" s="7">
-        <v>1</v>
-      </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
         <v>2225</v>
       </c>
-      <c r="G36" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>45540</v>
+        <v>45544</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1120</v>
+      </c>
+      <c r="H37" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>45545</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8">
+        <v>3085</v>
+      </c>
+      <c r="H38" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>45545</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8">
+        <v>3105</v>
+      </c>
+      <c r="H39" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>45545</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>2361</v>
+      </c>
+      <c r="H40" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>45545</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="8">
+        <v>2338</v>
+      </c>
+      <c r="H41" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>45546</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8">
+        <v>3075</v>
+      </c>
+      <c r="H42" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>45546</v>
+      </c>
+      <c r="B43" s="6">
+        <v>600988</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7">
+        <v>2</v>
+      </c>
+      <c r="G43" s="8">
+        <v>16.79</v>
+      </c>
+      <c r="H43" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>45546</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="8">
+        <v>3126</v>
+      </c>
+      <c r="H44" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>45546</v>
+      </c>
+      <c r="B45" s="6">
+        <v>601816</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7">
+        <v>7</v>
+      </c>
+      <c r="G45" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="H45" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>45546</v>
+      </c>
+      <c r="B46" s="6">
+        <v>601985</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7">
+        <v>7</v>
+      </c>
+      <c r="G46" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H46" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>45546</v>
+      </c>
+      <c r="B47" s="6">
+        <v>601398</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7">
+        <v>6</v>
+      </c>
+      <c r="G47" s="8">
+        <v>5.53</v>
+      </c>
+      <c r="H47" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>45546</v>
+      </c>
+      <c r="B48" s="6">
+        <v>603868</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+      <c r="G48" s="8">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="H48" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>45553</v>
+      </c>
+      <c r="B49" s="6">
+        <v>600988</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="7">
+        <v>2</v>
+      </c>
+      <c r="G49" s="8">
+        <v>16.98</v>
+      </c>
+      <c r="H49" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>45553</v>
+      </c>
+      <c r="B50" s="6">
+        <v>768</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="8">
+        <v>22.6</v>
+      </c>
+      <c r="H50" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>45554</v>
+      </c>
+      <c r="B51" s="6">
+        <v>159985</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="7">
+        <v>20</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="H51" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>45554</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="8">
+        <v>3200</v>
+      </c>
+      <c r="H52" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>45555</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="8">
+        <v>2274</v>
+      </c>
+      <c r="H53" s="7">
+        <v>10</v>
+      </c>
+      <c r="J53" s="27"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>45555</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8">
+        <v>2270</v>
+      </c>
+      <c r="H54" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>45555</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-      <c r="F37" s="8">
-        <v>1120</v>
-      </c>
-      <c r="G37" s="7">
-        <v>20</v>
-      </c>
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
+      <c r="G55" s="8">
+        <v>3221</v>
+      </c>
+      <c r="H55" s="7">
+        <v>10</v>
+      </c>
+      <c r="J55" s="27"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>45555</v>
+      </c>
+      <c r="B56" s="6">
+        <v>2487</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+      <c r="G56" s="8">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="H56" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>45555</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8">
+        <v>2157</v>
+      </c>
+      <c r="H57" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>45558</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="8">
+        <v>3163</v>
+      </c>
+      <c r="H58" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>45558</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="7">
+        <v>1</v>
+      </c>
+      <c r="G59" s="8">
+        <v>2361</v>
+      </c>
+      <c r="H59" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>45558</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1</v>
+      </c>
+      <c r="G60" s="8">
+        <v>2348</v>
+      </c>
+      <c r="H60" s="7">
+        <v>10</v>
+      </c>
+      <c r="J60" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E60" xr:uid="{AE4BDE69-3DFA-49CC-8531-6A71A7B2EF3D}">
+      <formula1>"开,平"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
